--- a/2020/Requisition/May/14.05.2020 Requisition of Mugdho Corporation.xlsx
+++ b/2020/Requisition/May/14.05.2020 Requisition of Mugdho Corporation.xlsx
@@ -1103,7 +1103,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1853,17 +1853,19 @@
       <c r="BU12" s="19"/>
       <c r="BV12" s="19"/>
     </row>
-    <row r="13" spans="1:74" customFormat="1" ht="15" hidden="1">
+    <row r="13" spans="1:74" customFormat="1" ht="15">
       <c r="A13" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="6">
         <v>729.96</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>40</v>
+      </c>
       <c r="D13" s="7">
         <f>C13*B13</f>
-        <v>0</v>
+        <v>29198.400000000001</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>96</v>
@@ -2000,17 +2002,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:74" customFormat="1" ht="15" hidden="1">
+    <row r="18" spans="1:74" customFormat="1" ht="15">
       <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="6">
         <v>794.06</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>40</v>
+      </c>
       <c r="D18" s="7">
         <f>C18*B18</f>
-        <v>0</v>
+        <v>31762.399999999998</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>96</v>
@@ -2093,11 +2097,11 @@
         <v>798.99</v>
       </c>
       <c r="C19" s="5">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7">
         <f>C19*B19</f>
-        <v>103868.7</v>
+        <v>111858.6</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>90</v>
@@ -2379,17 +2383,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:74" s="3" customFormat="1" ht="15" hidden="1">
+    <row r="27" spans="1:74" s="3" customFormat="1" ht="15">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="6">
         <v>878.19</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>20</v>
+      </c>
       <c r="D27" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17563.800000000003</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>90</v>
@@ -4379,17 +4385,19 @@
       <c r="BB93" s="23"/>
       <c r="BC93" s="23"/>
     </row>
-    <row r="94" spans="1:74" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" spans="1:74" customFormat="1" ht="14.25" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B94" s="6">
         <v>1099.8900000000001</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5">
+        <v>40</v>
+      </c>
       <c r="D94" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43995.600000000006</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>137</v>
@@ -4585,11 +4593,11 @@
         <v>7691.27</v>
       </c>
       <c r="C97" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" si="1"/>
-        <v>76912.700000000012</v>
+        <v>153825.40000000002</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>123</v>
@@ -4678,11 +4686,11 @@
       <c r="B101" s="43"/>
       <c r="C101" s="26">
         <f>SUBTOTAL(9,C7:C100)</f>
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D101" s="12">
         <f>SUBTOTAL(9,D7:D100)</f>
-        <v>180781.40000000002</v>
+        <v>388204.20000000007</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="31"/>
@@ -4914,7 +4922,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="15">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>139</v>
@@ -5068,7 +5076,7 @@
       </c>
       <c r="C110" s="16">
         <f>SUBTOTAL(9,C105:C109)</f>
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="17"/>
